--- a/biology/Zoologie/Conus_chiapponorum/Conus_chiapponorum.xlsx
+++ b/biology/Zoologie/Conus_chiapponorum/Conus_chiapponorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus chiapponorum est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 18 mm et 60 mm.
 </t>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au sud de Madagascar.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce n'est présente que dans une petite zone à Madagascar mais on sait peu de choses actuellement sur son écologie, son habitat et les menaces qui pèsent sur elle puisqu'elle n'a été enregistrée que sur des coquilles mortes. Elle a donc été classée dans la catégorie "Données insuffisantes"[1].
 </t>
         </is>
       </c>
@@ -573,22 +587,133 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce n'est présente que dans une petite zone à Madagascar mais on sait peu de choses actuellement sur son écologie, son habitat et les menaces qui pèsent sur elle puisqu'elle n'a été enregistrée que sur des coquilles mortes. Elle a donc été classée dans la catégorie "Données insuffisantes".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_chiapponorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_chiapponorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus chiapponorum a été décrite pour la première fois en 2004 par le malacologiste allemand Felix Lorenz (d)[2] dans la publication intitulée « Visaya »[3],[4].
-Synonymes
-Conus (Textilia) chiapponorum Lorenz, 2004 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus chiapponorum a été décrite pour la première fois en 2004 par le malacologiste allemand Felix Lorenz (d) dans la publication intitulée « Visaya »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_chiapponorum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_chiapponorum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Textilia) chiapponorum Lorenz, 2004 · appellation alternative
 Conus (Textilia) lucasi (Bozzetti, 2010) · non accepté
 Conus lucasi (Bozzetti, 2010) · non accepté
 Textilia chiapponorum (Lorenz, 2004) · non accepté
 Textilia lucasi Bozzetti, 2010 · non accepté
-Textilia lucasi f. albina Bozzetti, 2011 · non accepté
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus chiapponorum dans les principales bases sont les suivants :
+Textilia lucasi f. albina Bozzetti, 2011 · non accepté</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conus_chiapponorum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_chiapponorum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus chiapponorum dans les principales bases sont les suivants :
 CoL : XX5S - GBIF : 5728266 - iNaturalist : 431906 - IRMNG : 11697152 - TAXREF : 155473 - UICN : 192569 - WoRMS : 388887
 </t>
         </is>
